--- a/output/fit_clients/fit_round_69.xlsx
+++ b/output/fit_clients/fit_round_69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9712691410.308153</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003561967873334271</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.940622360054932</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.915975806386357</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.940622360054932</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6438798058.250272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00596376641758057</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>18</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8898142256697192</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.380211554822004</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.213854077554829</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.380211554822004</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5889813776.303554</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002971581808349483</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1458712972572645</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.122358609306324</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3815320935715132</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.122358609306324</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4037294543.888378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00397034678943472</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.591062741891099</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8078661400798282</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.591062741891099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7907404029.255482</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002661654284168158</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9322363177057179</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.377414173044881</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.231408622292666</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.377414173044881</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>5729971916.66217</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001083523317749807</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3523511130893313</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.509676002407428</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.6804533193306128</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.509676002407428</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>4773706234.636973</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003459244345851827</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.425740796173046</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9388525053839532</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.425740796173046</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6527897508.114304</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004064574101970738</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.033236380888335</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8796415658913063</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.033236380888335</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3346025636.787344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003751862205402186</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.588907311476807</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9105907552178322</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.588907311476807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4215288967.885226</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001106502039764282</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.485820745721179</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7619595102218131</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.485820745721179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7830659531.538373</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001926284318488524</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4479914498315231</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.997647063222841</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.8853303975512153</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.997647063222841</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4370147216.649296</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004571493262974025</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.509047084415726</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9968454142391255</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.509047084415726</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6630370821.984954</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002629924817313425</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9005298273177185</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.896247629247419</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.209688220960675</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.896247629247419</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7763974761.49679</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003723855469642392</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.425790737022039</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9720691184019404</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.425790737022039</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6098398470.557538</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003395972271841072</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9030395688123072</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.974383530722961</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.23432715993229</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.974383530722961</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6651684815.20647</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002652954685911893</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.945650314355222</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9164785850610758</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.945650314355222</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5070813731.400314</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001310987054184297</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.978606783915263</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.904595742418817</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.978606783915263</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3100268491.010966</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002358628864954175</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.709566214870962</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8858054813160959</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.709566214870962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5207571336.654993</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001428800868595159</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
         <v>8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.454342633734297</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.826289118920996</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.454342633734297</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7997892379.054586</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004181880485989547</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.783833561301803</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8339087622093885</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.783833561301803</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6031854441.262629</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004723562810047947</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7182310478968167</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.509667988419262</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9507132071409962</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.509667988419262</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8487328188.128806</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001295197591829393</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.341173517325018</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8373209270075626</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.341173517325018</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7897401666.865383</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004304604248525137</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.133381285742043</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9716976039299852</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.133381285742043</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6498412800.87133</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004018436284826993</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.22552799954585</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9179446416981768</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.22552799954585</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5413851894.666177</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001135097990577337</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>17</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.301947862085872</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.786895657211192</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.301947862085872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6689177181.231956</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003223211628464576</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.8226434461099</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9135394135897295</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.8226434461099</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6170101143.309069</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005618123133290238</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.932184975803839</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8866203390767343</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.932184975803839</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6377348991.901668</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001632419285083577</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.4409866002869738</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.010607575082777</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.871975696013551</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.010607575082777</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5514273229.429611</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002834305919615537</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.573603840688263</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8644500934242598</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.573603840688263</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6493190580.001525</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002280428803990869</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>17</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.543600130068863</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9194761152242064</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.543600130068863</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5208467313.861911</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001199550058547615</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.990544120866428</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9012172784856682</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.990544120866428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7379733944.495964</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002759530614155751</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.120502444788027</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8237839915690826</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.120502444788027</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>4981252808.376217</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003679268043063985</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>13</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.945690834909529</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7318026827734617</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.945690834909529</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6123761346.757014</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002016715392618978</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>13</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.792512457688423</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9016178350657034</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.792512457688423</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7495255975.257316</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003739020111682276</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.3152623868193973</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.795196930450826</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.7258480305317738</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.795196930450826</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4834509170.31881</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.003864481570170951</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.791354196817124</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9812987431392998</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.791354196817124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3554955568.088433</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.005011623439930628</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.536183409302861</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8685739750138293</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.536183409302861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>3974301633.536904</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002648029916419727</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.993088262367018</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8276742797430348</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.993088262367018</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7029414627.435699</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.005013344638392866</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>14</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.893767814600401</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9511321855412584</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.893767814600401</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6068716902.945251</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.00128277426603356</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.047408011522077</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9035077345119188</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.047408011522077</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5532689550.271083</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005386520460843532</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.601241646139755</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9469865420664261</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.601241646139755</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4985169851.406158</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003560463978938168</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>13</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.918238145767793</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.8950482306737553</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.918238145767793</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5856959639.4323</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.00229548648674303</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>16</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.3076704298152919</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.660848764665007</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.6341577462113868</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.660848764665007</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5547265877.119317</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001188396284253355</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.081402136944589</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9284909759891803</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.081402136944589</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8772603602.416647</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004144452077336779</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>13</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.823714530039918</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8084361565874546</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.823714530039918</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8441656782.688806</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002498865702960409</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.620615006681776</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8655871965900389</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.620615006681776</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5212953061.898796</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002328500468937474</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.374512205595547</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9300451829686268</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.374512205595547</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5701199310.350269</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005045638366109621</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>18</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9981726543574443</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.537989684904995</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.257309921605085</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.537989684904995</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8051111270.244297</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003863748318319562</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.105787362703762</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.006342655282203</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.105787362703762</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5018977718.692667</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004582175096679983</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>17</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5067480863400248</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.538077170002083</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.906278851385478</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.538077170002083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8711174786.022705</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001702259902737923</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.838008963462743</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8363835645033562</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.838008963462743</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5389545545.38345</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003477605567890725</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>11</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.041471045681033</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9121754619359083</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.041471045681033</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6024503667.735655</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004311266452199597</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.538024609532406</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8244185688438043</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.538024609532406</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8266392976.999076</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002901452460364529</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.609090972438748</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8764652681236497</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.609090972438748</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4266072680.003785</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002409126682689763</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.06212982391626</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9002358211517062</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.06212982391626</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5515928874.131418</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004168871020524565</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.660949306058961</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.796957843236344</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.660949306058961</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5889859895.023427</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002050224907195975</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.392583573876801</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7960512100116564</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.392583573876801</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6068435916.375656</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004521641275820089</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.760918091167178</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8694049833111305</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.760918091167178</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3785007079.853373</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002795737241632428</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.581532536624129</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8079894069914804</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.581532536624129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7064168761.246157</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005715835790003824</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>19</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.4473174383717237</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.018453979328968</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8188904329768288</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.018453979328968</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6113771867.215831</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003615016877176374</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.284732662318043</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8437202191438663</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.284732662318043</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>5671025863.188538</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00405870025359244</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>18</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.36808298333399</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8650548398281971</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.36808298333399</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4631000313.572883</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004645067415925388</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.864839222313256</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8675555894090572</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.864839222313256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7324120317.186055</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005856006949705207</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.068594264225312</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9691957762671468</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.068594264225312</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6092328776.703197</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003982371608394292</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>12</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.941678912890404</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.31048821924533</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.941678912890404</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7253146857.904031</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003687082230064819</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.414566261527772</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8755698135463539</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.414566261527772</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8916744995.098858</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002613049428514198</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.337063442523217</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6882075924188139</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.337063442523217</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4382154843.812738</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008969540324062915</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>8</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.01882004692762814</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.590027757906953</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-0.2776429691155288</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.590027757906953</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6592560591.735413</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00272485381826173</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.981882569729104</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.875157334955347</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.981882569729104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4314296459.054655</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003169056295512753</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.118295060052375</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7913450375717188</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.118295060052375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7207684227.672347</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001737832079792987</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>16</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.537600658437174</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.003728746248363</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.537600658437174</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7831807844.792838</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001436376769224454</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.007800319448708</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9324384484063366</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.007800319448708</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5290092104.498233</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003988453134681202</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.962574614530371</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8668377052845342</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.962574614530371</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5314112113.632071</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003822003423545513</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.701113383588154</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8350874532460569</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.701113383588154</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7223209284.856255</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002974513271842603</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.707230588253686</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8975348199014286</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.707230588253686</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7735935170.931261</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005949447023051583</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>10</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.204800141652199</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9588244727366125</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.204800141652199</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5377968064.018645</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003534718631841428</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.654665906758683</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8842861428196181</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.654665906758683</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7235996213.551086</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002134046581196302</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>8</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.44030833590418</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-0.3405026123034994</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.44030833590418</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7638175852.296003</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003028126944642307</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.837915652207972</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9347190466908885</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.837915652207972</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5293229031.337364</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004045134829985204</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.443328291246998</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9575250298006647</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.443328291246998</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7148701295.205962</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004854599867563119</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.549416553895361</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8494120207921273</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.549416553895361</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10120598605.02791</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003417367861731429</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.171116767920129</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7736996494464172</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.171116767920129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5769323061.89673</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005196065332422994</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.44356127643921</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.913035016410352</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.44356127643921</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5648945146.535689</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003752456562628943</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.346471104837055</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8673259696728616</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.346471104837055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8741323057.222216</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002133297264811877</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.3848573926310197</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.804320290105706</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.7867885999314017</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.804320290105706</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3423636726.913198</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00133465298997488</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>22</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3063183847170045</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.178773296469322</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.6094333008825445</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.178773296469322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6338318213.227059</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003953130454594088</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.731985063459141</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.822906914438436</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.731985063459141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5452977103.407381</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003299877424618127</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.010906929895992</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.925697540950941</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.010906929895992</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6529609515.188529</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003668494136006163</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.834827403395504</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9235699624629622</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.834827403395504</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5182709448.325318</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004113235468633796</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.032464375486301</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.7938270783036864</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.032464375486301</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3873163001.944244</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004138503023833444</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.978986203433242</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.015873754749288</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.978986203433242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5833074389.778043</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001686150547260412</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.557971934034007</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8827641893710662</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.557971934034007</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6372038957.821589</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001528589137767952</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>10</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.217939231931425</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.9891214768168634</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.217939231931425</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6248079431.54476</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002511172801891919</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.099195967625696</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9071659475688471</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.099195967625696</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9917046001.358154</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00283140028807691</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>20</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.1980706858573672</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.342656844726728</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.3417579710240696</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.342656844726728</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5539162911.675486</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004641855487126229</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>13</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.939717088037259</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8648676786009887</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.939717088037259</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7665846694.059329</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.005047044878569064</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.615284020412763</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8359517507032858</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.615284020412763</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3578453765.650457</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005742534188255428</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>16</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.589322831064837</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8681581725721833</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.589322831064837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4799041258.965008</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002405128681123695</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.730399033014761</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7961763061558573</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.730399033014761</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7767403221.443007</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001563539390222975</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5107144476852137</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.825381157822978</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8509936247781225</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.825381157822978</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_69.xlsx
+++ b/output/fit_clients/fit_round_69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9712691410.308153</v>
+        <v>1703503288.38057</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003561967873334271</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
+        <v>0.08257495146550053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03059347397573792</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>851751599.8972425</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6438798058.250272</v>
+        <v>1918260025.609978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00596376641758057</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+        <v>0.1204073502428222</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03831250648461646</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>959130040.1037596</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5889813776.303554</v>
+        <v>4719783792.733875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002971581808349483</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
+        <v>0.1608303118992873</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0305920498223074</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2359891961.427629</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4037294543.888378</v>
+        <v>3793825427.184148</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00397034678943472</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07113543551220032</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0349446338755332</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1896912730.843416</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7907404029.255482</v>
+        <v>2328012821.885775</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002661654284168158</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15</v>
+        <v>0.1381888965241792</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05567466123505729</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1164006404.950739</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>5729971916.66217</v>
+        <v>3134236961.156784</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001083523317749807</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.1015383255284165</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03023585341060919</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1567118432.448655</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>4773706234.636973</v>
+        <v>3270041888.659819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003459244345851827</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.1806141639257135</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02714619113305488</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1635021029.354236</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6527897508.114304</v>
+        <v>2236690959.837162</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004064574101970738</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>22</v>
+        <v>0.192263642319605</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03385995673264864</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1118345473.574505</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3346025636.787344</v>
+        <v>4497480573.443751</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003751862205402186</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2133755685053951</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04796640145698108</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2248740347.02597</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4215288967.885226</v>
+        <v>3011037735.431666</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001106502039764282</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1915926110655543</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04976924524049569</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1505518811.295659</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7830659531.538373</v>
+        <v>2317283242.543525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001926284318488524</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>20</v>
+        <v>0.1793960060702675</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04237823104586516</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1158641576.68177</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4370147216.649296</v>
+        <v>3714384776.284328</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004571493262974025</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14</v>
+        <v>0.07831684485256062</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02507470782181049</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1857192457.485262</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6630370821.984954</v>
+        <v>2750061762.644084</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002629924817313425</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16</v>
+        <v>0.1206368035251005</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03353139361126865</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1375030933.717339</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7763974761.49679</v>
+        <v>1379836860.323629</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003723855469642392</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>19</v>
+        <v>0.1078032682597414</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04357523046765597</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>689918488.3222553</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6098398470.557538</v>
+        <v>2057511647.725504</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003395972271841072</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>22</v>
+        <v>0.07218537875766155</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04233775579177868</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1028755894.120088</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6651684815.20647</v>
+        <v>3345914402.664691</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002652954685911893</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14</v>
+        <v>0.1366563576647192</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03965188053187933</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1672957268.179751</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5070813731.400314</v>
+        <v>3186894668.85001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001310987054184297</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>18</v>
+        <v>0.1161133626664023</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03291094427517845</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1593447351.033738</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3100268491.010966</v>
+        <v>1332971737.526128</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002358628864954175</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1619218430839761</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02049058945086026</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>666485978.9453268</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5207571336.654993</v>
+        <v>2113501540.37428</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001428800868595159</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1327797340996856</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0263791739954102</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1056750784.34902</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7997892379.054586</v>
+        <v>2321053144.969158</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004181880485989547</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
+        <v>0.07894686716403754</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03194110467271709</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1160526577.64961</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6031854441.262629</v>
+        <v>3646402517.558389</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004723562810047947</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1357556637677614</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0390964743998615</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1823201281.494874</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8487328188.128806</v>
+        <v>1098328512.550818</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001295197591829393</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>13</v>
+        <v>0.1633631226596246</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03712012931198886</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>549164309.79738</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7897401666.865383</v>
+        <v>2829214295.320846</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004304604248525137</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17</v>
+        <v>0.1282326250678873</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03439114842667153</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1414607194.292309</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6498412800.87133</v>
+        <v>1315962375.825019</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004018436284826993</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>15</v>
+        <v>0.08794863656216149</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02387114317014844</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>657981179.0979987</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5413851894.666177</v>
+        <v>1425104572.743158</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001135097990577337</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1227568488267912</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03087478513649463</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>712552362.4538076</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6689177181.231956</v>
+        <v>4061956044.616061</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003223211628464576</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1306079619150076</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0182182748962795</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2030978029.29518</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6170101143.309069</v>
+        <v>2670555456.609338</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005618123133290238</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>17</v>
+        <v>0.1086592739845556</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04857395596161595</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1335277710.808569</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6377348991.901668</v>
+        <v>5055920897.4814</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001632419285083577</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+        <v>0.1211996067693217</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04003250317800267</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>31</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2527960392.259144</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5514273229.429611</v>
+        <v>1723708787.267617</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002834305919615537</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>22</v>
+        <v>0.1398845092294661</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03765583784934912</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>861854399.5278355</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6493190580.001525</v>
+        <v>962076222.7411642</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002280428803990869</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>14</v>
+        <v>0.1113544366534234</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0330779920692186</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>481038118.7069878</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5208467313.861911</v>
+        <v>1294766243.591611</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001199550058547615</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08002628295422599</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03370663384671176</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>647383147.5326765</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7379733944.495964</v>
+        <v>2180023958.057963</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002759530614155751</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>15</v>
+        <v>0.191398728352663</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03925919771859898</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1090012044.382182</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>4981252808.376217</v>
+        <v>1377422781.087534</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003679268043063985</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>21</v>
+        <v>0.1164014820406645</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01972006982367196</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>688711366.4258865</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6123761346.757014</v>
+        <v>887939091.5443178</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002016715392618978</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>18</v>
+        <v>0.07555169677199007</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03593077465252697</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>443969588.834979</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7495255975.257316</v>
+        <v>2217770639.079237</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003739020111682276</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>20</v>
+        <v>0.1484527477644373</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02508600577641519</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1108885364.040234</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4834509170.31881</v>
+        <v>2407509933.372798</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003864481570170951</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>18</v>
+        <v>0.1053169734433569</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03447829343569915</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1203755049.924853</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3554955568.088433</v>
+        <v>2006805930.535368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005011623439930628</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09655511247247267</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02630059969644585</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1003402942.835391</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>3974301633.536904</v>
+        <v>1775946571.797766</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002648029916419727</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
+        <v>0.1352158880740664</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02996142976701656</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>887973314.340253</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7029414627.435699</v>
+        <v>1241535176.585637</v>
       </c>
       <c r="F40" t="n">
-        <v>0.005013344638392866</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.1076412445660113</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04773756849018525</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>620767619.1163493</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6068716902.945251</v>
+        <v>2702110425.14437</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00128277426603356</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>20</v>
+        <v>0.1428306874893904</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03612017569738529</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1351055217.964341</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5532689550.271083</v>
+        <v>4287586124.128356</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005386520460843532</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>18</v>
+        <v>0.08983028791367109</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0285180594381981</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2143793111.046115</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4985169851.406158</v>
+        <v>2677291325.544309</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003560463978938168</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>16</v>
+        <v>0.1434065945699602</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01691536255831911</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>24</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1338645693.508451</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5856959639.4323</v>
+        <v>2141287566.67579</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00229548648674303</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>18</v>
+        <v>0.0881313092331746</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02389360520211651</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1070643917.764265</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5547265877.119317</v>
+        <v>2004904688.633678</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001188396284253355</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1261297790372042</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03508238193456077</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1002452335.57419</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8772603602.416647</v>
+        <v>3591706494.583584</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004144452077336779</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>11</v>
+        <v>0.1135202915858172</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05935431950968276</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1795853193.362142</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8441656782.688806</v>
+        <v>4605504870.680276</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002498865702960409</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.169052244222746</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05511162437059228</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2302752468.667465</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5212953061.898796</v>
+        <v>3432398192.954826</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002328500468937474</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>12</v>
+        <v>0.07434015810373246</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03525400577645339</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1716199163.757692</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5701199310.350269</v>
+        <v>1296922206.979713</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005045638366109621</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1399777199076301</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04428576480708898</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>648461167.0104202</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8051111270.244297</v>
+        <v>3869722811.371461</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003863748318319562</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>19</v>
+        <v>0.1425514375972841</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05322470724446843</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1934861403.529075</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5018977718.692667</v>
+        <v>938319984.1127619</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004582175096679983</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1857092161404974</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03772644098462846</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>469160085.892514</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>565</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5015318749.768666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1382829974145161</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04150881789824128</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="D52" t="n">
-        <v>497</v>
-      </c>
-      <c r="E52" t="n">
-        <v>8711174786.022705</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.001702259902737923</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>17</v>
+      <c r="I52" t="n">
+        <v>28</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2507659371.495278</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5389545545.38345</v>
+        <v>2468111423.597712</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003477605567890725</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>13</v>
+        <v>0.1956855003753118</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03371582825354984</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1234055780.887979</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6024503667.735655</v>
+        <v>4107393659.645185</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004311266452199597</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>18</v>
+        <v>0.1418447068737093</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0505732196117326</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2053696902.226902</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8266392976.999076</v>
+        <v>4955680604.032651</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002901452460364529</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>22</v>
+        <v>0.2069324522234799</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02676902274402105</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2477840318.990914</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4266072680.003785</v>
+        <v>1871065035.428648</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002409126682689763</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>11</v>
+        <v>0.1421726869118394</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03530194310101919</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>935532504.9098439</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5515928874.131418</v>
+        <v>3041868266.225601</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004168871020524565</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1715241529381807</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01934026624142821</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1520934140.950882</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5889859895.023427</v>
+        <v>1738892889.035163</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002050224907195975</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1290674945401167</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03099652885209402</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>869446453.7565581</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6068435916.375656</v>
+        <v>3803647096.155238</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004521641275820089</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.08187778483682423</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04245944885473148</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1901823533.394329</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3785007079.853373</v>
+        <v>2415888693.088493</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002795737241632428</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1268317208503792</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02876390791341295</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1207944355.548418</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7064168761.246157</v>
+        <v>3085898955.550677</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005715835790003824</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>16</v>
+        <v>0.1463366741100156</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02520115776953544</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1542949450.038958</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6113771867.215831</v>
+        <v>1533262902.073756</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003615016877176374</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1335312702250579</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03255319982187287</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>766631438.9806875</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5671025863.188538</v>
+        <v>4784898315.011781</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00405870025359244</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>16</v>
+        <v>0.07153401852726403</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03220274754187354</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>19</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2392449184.764299</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>491</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5386006817.348416</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1877136834839233</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02170675566657529</v>
+      </c>
+      <c r="H64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" t="n">
-        <v>545</v>
-      </c>
-      <c r="E64" t="n">
-        <v>4631000313.572883</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.004645067415925388</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+      <c r="I64" t="n">
+        <v>21</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2693003541.920346</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7324120317.186055</v>
+        <v>5148321163.707112</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005856006949705207</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+        <v>0.1192459032527796</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02145522412578947</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2574160531.802708</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6092328776.703197</v>
+        <v>5698678782.275329</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003982371608394292</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>13</v>
+        <v>0.1338939009388846</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04421440820052423</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2849339455.607253</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7253146857.904031</v>
+        <v>2297437560.974316</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003687082230064819</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>11</v>
+        <v>0.07215081989562298</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04519673754449019</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>22</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1148718858.124386</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8916744995.098858</v>
+        <v>5359609997.801104</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002613049428514198</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>14</v>
+        <v>0.1490455679967818</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03883243669429251</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>22</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2679805076.974689</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4382154843.812738</v>
+        <v>2449460583.342207</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008969540324062915</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>16</v>
+        <v>0.125391380154285</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03711964394965816</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1224730354.639557</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6592560591.735413</v>
+        <v>2564699342.909976</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00272485381826173</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.08829370936563417</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03852404549917456</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1282349620.001763</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>531</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4682086887.943307</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1238946333096667</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03238501798581566</v>
+      </c>
+      <c r="H71" t="b">
         <v>1</v>
       </c>
-      <c r="D71" t="n">
-        <v>474</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4314296459.054655</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.003169056295512753</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2341043525.823873</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7207684227.672347</v>
+        <v>2217516347.448312</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001737832079792987</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>14</v>
+        <v>0.1084241635737103</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0526485535174968</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1108758084.877448</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7831807844.792838</v>
+        <v>3407627686.290514</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001436376769224454</v>
-      </c>
-      <c r="G73" t="b">
+        <v>0.07339230299373091</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04705580699477775</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="H73" t="n">
-        <v>15</v>
+      <c r="I73" t="n">
+        <v>26</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1703813801.717132</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5290092104.498233</v>
+        <v>3074409053.784002</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003988453134681202</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15</v>
+        <v>0.117909057533311</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02914256560657574</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1537204585.724677</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5314112113.632071</v>
+        <v>1754589179.878233</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003822003423545513</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>13</v>
+        <v>0.153904576274644</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02379092125325991</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>877294577.0042683</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7223209284.856255</v>
+        <v>5038851815.951871</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002974513271842603</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>14</v>
+        <v>0.08118494296982212</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03070131415878902</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2519425936.183313</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7735935170.931261</v>
+        <v>1887981628.283107</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005949447023051583</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>23</v>
+        <v>0.1188630389951107</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02496081663669684</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>943990859.0483533</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5377968064.018645</v>
+        <v>4765730132.051764</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003534718631841428</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.1182755354737687</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05048228721088736</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2382864976.811732</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7235996213.551086</v>
+        <v>1707741514.892199</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002134046581196302</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1682348462650897</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02481619423567063</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>853870827.8808538</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7638175852.296003</v>
+        <v>4581629262.793337</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003028126944642307</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>22</v>
+        <v>0.0828620038046216</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0270883063295727</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2290814659.69129</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5293229031.337364</v>
+        <v>5078259389.642109</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004045134829985204</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.09965297040729118</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02005037605647223</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2539129698.010238</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7148701295.205962</v>
+        <v>3564423049.94831</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004854599867563119</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.2150379049996695</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01917298543782911</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1782211588.969067</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10120598605.02791</v>
+        <v>2248186494.494778</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003417367861731429</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>19</v>
+        <v>0.130037082537282</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04314962238045017</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1124093263.376006</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5769323061.89673</v>
+        <v>1767788825.853571</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005196065332422994</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>19</v>
+        <v>0.1029650925730482</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05232117956606146</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>883894451.8425928</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>541</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3314544849.838604</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1614290002668147</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05593647928618579</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
       </c>
-      <c r="D85" t="n">
-        <v>512</v>
-      </c>
-      <c r="E85" t="n">
-        <v>5648945146.535689</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.003752456562628943</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+      <c r="I85" t="n">
+        <v>26</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1657272519.696401</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8741323057.222216</v>
+        <v>1947673576.36039</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002133297264811877</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>18</v>
+        <v>0.1069121905236498</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02696107313135602</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>973836808.398222</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3423636726.913198</v>
+        <v>1162729325.664015</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00133465298997488</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.167458585306512</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03290205549467098</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>581364708.7574524</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
+        <v>5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>555</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2506811318.468202</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.114931430192312</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03330458960582534</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="D88" t="n">
-        <v>477</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6338318213.227059</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.003953130454594088</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1253405640.853692</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5452977103.407381</v>
+        <v>2214069329.058379</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003299877424618127</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>15</v>
+        <v>0.1356766161281172</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0378125028841492</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>23</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1107034760.153883</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6529609515.188529</v>
+        <v>1979364919.123578</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003668494136006163</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>13</v>
+        <v>0.1008343907513768</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05282105723393503</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>989682525.9133918</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5182709448.325318</v>
+        <v>2014394834.745798</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004113235468633796</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>21</v>
+        <v>0.1945890567065879</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05511085851100907</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1007197387.638624</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3873163001.944244</v>
+        <v>1828654749.384949</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004138503023833444</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09081851966979211</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04213656735453386</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>15</v>
+      </c>
+      <c r="J92" t="n">
+        <v>914327307.8216302</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5833074389.778043</v>
+        <v>4522129126.800917</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001686150547260412</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>24</v>
+        <v>0.1309713750941822</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04167816834989843</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2261064530.165723</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6372038957.821589</v>
+        <v>2143546943.920393</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001528589137767952</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>21</v>
+        <v>0.1451852086251045</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02840826959965717</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1071773488.909112</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6248079431.54476</v>
+        <v>2222412061.732955</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002511172801891919</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.1255677207199856</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04588855255615646</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1111206087.044166</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9917046001.358154</v>
+        <v>1700738450.267553</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00283140028807691</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>18</v>
+        <v>0.122441358133661</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0389921525954388</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>850369243.9600117</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5539162911.675486</v>
+        <v>5053603867.545416</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004641855487126229</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>18</v>
+        <v>0.114400201362505</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02789319709893122</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>22</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2526802074.793259</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7665846694.059329</v>
+        <v>2397852638.757139</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005047044878569064</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>26</v>
+        <v>0.09139714651323083</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02020784735349414</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1198926263.145165</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3578453765.650457</v>
+        <v>3096126671.855031</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005742534188255428</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1422390767957852</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0249068927258216</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>22</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1548063328.751327</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4799041258.965008</v>
+        <v>4147296163.142112</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002405128681123695</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>7</v>
+        <v>0.1452353280192152</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02118665149913087</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2073648163.901585</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7767403221.443007</v>
+        <v>3371093865.65371</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001563539390222975</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.1398574259333939</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05175181552260923</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>22</v>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1685547070.855078</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_69.xlsx
+++ b/output/fit_clients/fit_round_69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1703503288.38057</v>
+        <v>2200889825.459845</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08257495146550053</v>
+        <v>0.08560872311481638</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03059347397573792</v>
+        <v>0.03743961889567889</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>851751599.8972425</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1918260025.609978</v>
+        <v>2469311747.374462</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1204073502428222</v>
+        <v>0.1734039921578905</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03831250648461646</v>
+        <v>0.03948157051656648</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>959130040.1037596</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4719783792.733875</v>
+        <v>3346293106.58808</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1608303118992873</v>
+        <v>0.1423140031802115</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0305920498223074</v>
+        <v>0.03793302883628751</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2359891961.427629</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3793825427.184148</v>
+        <v>3668325217.145107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07113543551220032</v>
+        <v>0.07550243073530501</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0349446338755332</v>
+        <v>0.04978725075072988</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1896912730.843416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2328012821.885775</v>
+        <v>2291520374.641752</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1381888965241792</v>
+        <v>0.1077959846899438</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05567466123505729</v>
+        <v>0.05164277577520682</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1164006404.950739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3134236961.156784</v>
+        <v>2766978874.830138</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1015383255284165</v>
+        <v>0.09860251999779017</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03023585341060919</v>
+        <v>0.03057867037802572</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>21</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1567118432.448655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3270041888.659819</v>
+        <v>3814504790.515559</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1806141639257135</v>
+        <v>0.1744558851365943</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02714619113305488</v>
+        <v>0.0252718724607538</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>22</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1635021029.354236</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2236690959.837162</v>
+        <v>1928856897.479282</v>
       </c>
       <c r="F9" t="n">
-        <v>0.192263642319605</v>
+        <v>0.1205696654106888</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03385995673264864</v>
+        <v>0.02847028910097972</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1118345473.574505</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4497480573.443751</v>
+        <v>5255922617.803554</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2133755685053951</v>
+        <v>0.1801191320512418</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04796640145698108</v>
+        <v>0.05106622724635798</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>29</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2248740347.02597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3011037735.431666</v>
+        <v>2883184992.780968</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1915926110655543</v>
+        <v>0.1777599794113241</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04976924524049569</v>
+        <v>0.04325296394944597</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>29</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1505518811.295659</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2317283242.543525</v>
+        <v>2511318113.894057</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1793960060702675</v>
+        <v>0.1451726591723191</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04237823104586516</v>
+        <v>0.04815572708547035</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>24</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1158641576.68177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3714384776.284328</v>
+        <v>4546854029.727784</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07831684485256062</v>
+        <v>0.08329634630175418</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02507470782181049</v>
+        <v>0.02897198081296946</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>23</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1857192457.485262</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2750061762.644084</v>
+        <v>2753746359.881932</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1206368035251005</v>
+        <v>0.1531252486381476</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03353139361126865</v>
+        <v>0.03996716734680382</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1375030933.717339</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1379836860.323629</v>
+        <v>1708664258.79883</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1078032682597414</v>
+        <v>0.09685464039836633</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04357523046765597</v>
+        <v>0.03339925726113144</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>689918488.3222553</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2057511647.725504</v>
+        <v>2378480080.018105</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07218537875766155</v>
+        <v>0.111552074203893</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04233775579177868</v>
+        <v>0.04515856448184301</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1028755894.120088</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3345914402.664691</v>
+        <v>3793481639.128416</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1366563576647192</v>
+        <v>0.1305083351053165</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03965188053187933</v>
+        <v>0.04463475187071918</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>20</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1672957268.179751</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3186894668.85001</v>
+        <v>2838201459.896214</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1161133626664023</v>
+        <v>0.1795941183547826</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03291094427517845</v>
+        <v>0.03065180993694436</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1593447351.033738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1332971737.526128</v>
+        <v>1237195605.713729</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1619218430839761</v>
+        <v>0.1336894846339769</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02049058945086026</v>
+        <v>0.02578973074125973</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>666485978.9453268</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2113501540.37428</v>
+        <v>2571337694.106648</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1327797340996856</v>
+        <v>0.1015160906009828</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0263791739954102</v>
+        <v>0.02697929664689227</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1056750784.34902</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2321053144.969158</v>
+        <v>1978836092.339703</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07894686716403754</v>
+        <v>0.0912991284403024</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03194110467271709</v>
+        <v>0.03760835044366025</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1160526577.64961</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3646402517.558389</v>
+        <v>3404247550.862999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1357556637677614</v>
+        <v>0.1243416896101695</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0390964743998615</v>
+        <v>0.05500071433576859</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1823201281.494874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1098328512.550818</v>
+        <v>1009416711.947966</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1633631226596246</v>
+        <v>0.1422302979786336</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03712012931198886</v>
+        <v>0.05437754106598838</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>549164309.79738</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2829214295.320846</v>
+        <v>2894554631.5961</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1282326250678873</v>
+        <v>0.1227004794549045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03439114842667153</v>
+        <v>0.03387534048553469</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>20</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1414607194.292309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1315962375.825019</v>
+        <v>1224763662.221562</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08794863656216149</v>
+        <v>0.07723805193879951</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02387114317014844</v>
+        <v>0.02604997154161489</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>657981179.0979987</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1425104572.743158</v>
+        <v>1304715405.470564</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1227568488267912</v>
+        <v>0.1098169873077088</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03087478513649463</v>
+        <v>0.02961147989363135</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>712552362.4538076</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4061956044.616061</v>
+        <v>3010504136.604636</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1306079619150076</v>
+        <v>0.1268696052629388</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0182182748962795</v>
+        <v>0.02160638249031921</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2030978029.29518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2670555456.609338</v>
+        <v>2785681343.389456</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1086592739845556</v>
+        <v>0.1253871546069031</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04857395596161595</v>
+        <v>0.04465631965668023</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>23</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1335277710.808569</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5055920897.4814</v>
+        <v>5036072114.473401</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1211996067693217</v>
+        <v>0.1273411565960935</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04003250317800267</v>
+        <v>0.04527331925227858</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>31</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2527960392.259144</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1723708787.267617</v>
+        <v>2388269133.404636</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1398845092294661</v>
+        <v>0.1300545840846734</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03765583784934912</v>
+        <v>0.02940913809573047</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>861854399.5278355</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>962076222.7411642</v>
+        <v>1015242188.630888</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1113544366534234</v>
+        <v>0.1039117103593236</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0330779920692186</v>
+        <v>0.03567315574811012</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>481038118.7069878</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1294766243.591611</v>
+        <v>1798676643.49646</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08002628295422599</v>
+        <v>0.09742356483158394</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03370663384671176</v>
+        <v>0.02964568213800748</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>647383147.5326765</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2180023958.057963</v>
+        <v>2310853961.748832</v>
       </c>
       <c r="F33" t="n">
-        <v>0.191398728352663</v>
+        <v>0.1731281702174921</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03925919771859898</v>
+        <v>0.05191658869883483</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>20</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1090012044.382182</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1377422781.087534</v>
+        <v>1259938672.18894</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1164014820406645</v>
+        <v>0.09725529868768544</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01972006982367196</v>
+        <v>0.02561022361851113</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>688711366.4258865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>887939091.5443178</v>
+        <v>940052416.5636673</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07555169677199007</v>
+        <v>0.0928459795034296</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03593077465252697</v>
+        <v>0.04336040935210409</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>443969588.834979</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2217770639.079237</v>
+        <v>2709191525.862069</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1484527477644373</v>
+        <v>0.1291997931791604</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02508600577641519</v>
+        <v>0.02055780820422662</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1108885364.040234</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2407509933.372798</v>
+        <v>1807152051.943491</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1053169734433569</v>
+        <v>0.1102818030565079</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03447829343569915</v>
+        <v>0.03014595765813144</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1203755049.924853</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2006805930.535368</v>
+        <v>1886140259.835331</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09655511247247267</v>
+        <v>0.1080704498659624</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02630059969644585</v>
+        <v>0.02567622919710915</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1003402942.835391</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1775946571.797766</v>
+        <v>1688296889.945534</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1352158880740664</v>
+        <v>0.1910428745576225</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02996142976701656</v>
+        <v>0.02165473977727415</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>887973314.340253</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1241535176.585637</v>
+        <v>1199636990.251223</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1076412445660113</v>
+        <v>0.1457207935201628</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04773756849018525</v>
+        <v>0.06022187431745789</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>620767619.1163493</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2702110425.14437</v>
+        <v>1962460356.829921</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1428306874893904</v>
+        <v>0.1558900518722971</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03612017569738529</v>
+        <v>0.0406081820995123</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1351055217.964341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4287586124.128356</v>
+        <v>3471574516.308571</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08983028791367109</v>
+        <v>0.1076369658898403</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0285180594381981</v>
+        <v>0.03713388005425503</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>23</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2143793111.046115</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2677291325.544309</v>
+        <v>2118903132.228381</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1434065945699602</v>
+        <v>0.1998772935900295</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01691536255831911</v>
+        <v>0.01661388253454693</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>24</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1338645693.508451</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2141287566.67579</v>
+        <v>2280647135.323376</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0881313092331746</v>
+        <v>0.09765947838705148</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02389360520211651</v>
+        <v>0.03014502840985495</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1070643917.764265</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2004904688.633678</v>
+        <v>2015748213.83551</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1261297790372042</v>
+        <v>0.1729844412342164</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03508238193456077</v>
+        <v>0.04499078142660094</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1002452335.57419</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3591706494.583584</v>
+        <v>5262479467.23313</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1135202915858172</v>
+        <v>0.1504495518705889</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05935431950968276</v>
+        <v>0.04587324575820866</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>25</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1795853193.362142</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4605504870.680276</v>
+        <v>3417773064.059103</v>
       </c>
       <c r="F47" t="n">
-        <v>0.169052244222746</v>
+        <v>0.1378712718015002</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05511162437059228</v>
+        <v>0.03828873366524618</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>18</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2302752468.667465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3432398192.954826</v>
+        <v>3513164484.951703</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07434015810373246</v>
+        <v>0.09538628604227047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03525400577645339</v>
+        <v>0.02992325447311237</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1716199163.757692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1296922206.979713</v>
+        <v>1628243724.565171</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1399777199076301</v>
+        <v>0.1281760325632503</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04428576480708898</v>
+        <v>0.04059111879416109</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>648461167.0104202</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3869722811.371461</v>
+        <v>2831371404.243999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1425514375972841</v>
+        <v>0.1701862417961872</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05322470724446843</v>
+        <v>0.04412802096847926</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>24</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1934861403.529075</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>938319984.1127619</v>
+        <v>1320779477.821871</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1857092161404974</v>
+        <v>0.1253157823568207</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03772644098462846</v>
+        <v>0.03443690976805915</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>469160085.892514</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5015318749.768666</v>
+        <v>3351180640.547948</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1382829974145161</v>
+        <v>0.1168269257976284</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04150881789824128</v>
+        <v>0.05274036030965734</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>28</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2507659371.495278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2468111423.597712</v>
+        <v>2372121539.751303</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1956855003753118</v>
+        <v>0.1920248718585133</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03371582825354984</v>
+        <v>0.03001650327563852</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1234055780.887979</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4107393659.645185</v>
+        <v>4470535009.064424</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1418447068737093</v>
+        <v>0.144008446684585</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0505732196117326</v>
+        <v>0.03368897898380402</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2053696902.226902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4955680604.032651</v>
+        <v>3649683350.663197</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2069324522234799</v>
+        <v>0.1975466423337011</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02676902274402105</v>
+        <v>0.02750263890367948</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2477840318.990914</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1871065035.428648</v>
+        <v>1364848111.991827</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1421726869118394</v>
+        <v>0.1508732041920229</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03530194310101919</v>
+        <v>0.0455511733436548</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>935532504.9098439</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3041868266.225601</v>
+        <v>3840610716.941584</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1715241529381807</v>
+        <v>0.1531275065221198</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01934026624142821</v>
+        <v>0.01662638042139316</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>22</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1520934140.950882</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1738892889.035163</v>
+        <v>1216585907.315114</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1290674945401167</v>
+        <v>0.174926355975013</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03099652885209402</v>
+        <v>0.03277807912995542</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>869446453.7565581</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3803647096.155238</v>
+        <v>4502072028.141587</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08187778483682423</v>
+        <v>0.1292398592306413</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04245944885473148</v>
+        <v>0.04814361169912686</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1901823533.394329</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2415888693.088493</v>
+        <v>2515320477.070506</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1268317208503792</v>
+        <v>0.2028691913272862</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02876390791341295</v>
+        <v>0.0205967009017392</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>21</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1207944355.548418</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3085898955.550677</v>
+        <v>2533235535.798335</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1463366741100156</v>
+        <v>0.1158815018011065</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02520115776953544</v>
+        <v>0.03058558673918342</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>24</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1542949450.038958</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1533262902.073756</v>
+        <v>2107837159.520927</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1335312702250579</v>
+        <v>0.1710733084902452</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03255319982187287</v>
+        <v>0.04324071432067393</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>766631438.9806875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4784898315.011781</v>
+        <v>4283975252.015638</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07153401852726403</v>
+        <v>0.0664662294932741</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03220274754187354</v>
+        <v>0.0364672498431019</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2392449184.764299</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5386006817.348416</v>
+        <v>5352553914.530618</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1877136834839233</v>
+        <v>0.1836827942383522</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02170675566657529</v>
+        <v>0.02416228579353655</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>21</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2693003541.920346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5148321163.707112</v>
+        <v>4530400997.34911</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1192459032527796</v>
+        <v>0.1229131530150708</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02145522412578947</v>
+        <v>0.02065336527799755</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2574160531.802708</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5698678782.275329</v>
+        <v>5095406630.846728</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1338939009388846</v>
+        <v>0.1120366170486751</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04421440820052423</v>
+        <v>0.04795935172536413</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>20</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2849339455.607253</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2297437560.974316</v>
+        <v>3394581451.729033</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07215081989562298</v>
+        <v>0.1002182106299172</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04519673754449019</v>
+        <v>0.04536933431453195</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>22</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1148718858.124386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5359609997.801104</v>
+        <v>5815939244.962986</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1490455679967818</v>
+        <v>0.1416027548897887</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03883243669429251</v>
+        <v>0.04558107785670568</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>22</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2679805076.974689</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2449460583.342207</v>
+        <v>1806401194.334983</v>
       </c>
       <c r="F69" t="n">
-        <v>0.125391380154285</v>
+        <v>0.1795697170397236</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03711964394965816</v>
+        <v>0.05848834217819113</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1224730354.639557</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2564699342.909976</v>
+        <v>3709331936.037271</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08829370936563417</v>
+        <v>0.1008021842449454</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03852404549917456</v>
+        <v>0.03136713587874052</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>20</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1282349620.001763</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4682086887.943307</v>
+        <v>5588347632.862143</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1238946333096667</v>
+        <v>0.1808598512914498</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03238501798581566</v>
+        <v>0.03336001648393948</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>25</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2341043525.823873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2217516347.448312</v>
+        <v>2047561277.04992</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1084241635737103</v>
+        <v>0.08401146828064913</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0526485535174968</v>
+        <v>0.03990910340168845</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1108758084.877448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3407627686.290514</v>
+        <v>2507346089.518277</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07339230299373091</v>
+        <v>0.1020248496526199</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04705580699477775</v>
+        <v>0.05213920336656089</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>26</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1703813801.717132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3074409053.784002</v>
+        <v>3517274560.837543</v>
       </c>
       <c r="F74" t="n">
-        <v>0.117909057533311</v>
+        <v>0.1722268818153342</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02914256560657574</v>
+        <v>0.02826952776643485</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>23</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1537204585.724677</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1754589179.878233</v>
+        <v>2281006587.816467</v>
       </c>
       <c r="F75" t="n">
-        <v>0.153904576274644</v>
+        <v>0.1509218602271618</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02379092125325991</v>
+        <v>0.02775648924515943</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>877294577.0042683</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5038851815.951871</v>
+        <v>3381804125.256038</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08118494296982212</v>
+        <v>0.1246878222982023</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03070131415878902</v>
+        <v>0.0318385952662201</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2519425936.183313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1887981628.283107</v>
+        <v>1916418730.009017</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1188630389951107</v>
+        <v>0.1772130285356219</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02496081663669684</v>
+        <v>0.02071105676372766</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>943990859.0483533</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4765730132.051764</v>
+        <v>3194628719.103203</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1182755354737687</v>
+        <v>0.1196204640429829</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05048228721088736</v>
+        <v>0.05030853809456101</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>25</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2382864976.811732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1707741514.892199</v>
+        <v>1665408322.128467</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1682348462650897</v>
+        <v>0.1752976722041358</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02481619423567063</v>
+        <v>0.02630560061950599</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>853870827.8808538</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4581629262.793337</v>
+        <v>5531994900.776025</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0828620038046216</v>
+        <v>0.0839411354674781</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0270883063295727</v>
+        <v>0.02547427969564041</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>14</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2290814659.69129</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5078259389.642109</v>
+        <v>5166975769.956489</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09965297040729118</v>
+        <v>0.08709470142060705</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02005037605647223</v>
+        <v>0.02769568367252973</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>15</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2539129698.010238</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3564423049.94831</v>
+        <v>4660492358.464988</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2150379049996695</v>
+        <v>0.1911955965962795</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01917298543782911</v>
+        <v>0.02784318942846407</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1782211588.969067</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2248186494.494778</v>
+        <v>1901840345.098338</v>
       </c>
       <c r="F83" t="n">
-        <v>0.130037082537282</v>
+        <v>0.1084396336128849</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04314962238045017</v>
+        <v>0.04496897139594593</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1124093263.376006</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1767788825.853571</v>
+        <v>2211591215.271527</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1029650925730482</v>
+        <v>0.09209156549276472</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05232117956606146</v>
+        <v>0.04891124500451147</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>883894451.8425928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3314544849.838604</v>
+        <v>3348775785.875093</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1614290002668147</v>
+        <v>0.1472907245226238</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05593647928618579</v>
+        <v>0.03801584194883227</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>26</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1657272519.696401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1947673576.36039</v>
+        <v>2393567061.081014</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1069121905236498</v>
+        <v>0.1706635040355758</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02696107313135602</v>
+        <v>0.02227749021720063</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>973836808.398222</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1162729325.664015</v>
+        <v>999555855.9798343</v>
       </c>
       <c r="F87" t="n">
-        <v>0.167458585306512</v>
+        <v>0.1411755943058002</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03290205549467098</v>
+        <v>0.03435658489294067</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>581364708.7574524</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2506811318.468202</v>
+        <v>2420453378.657668</v>
       </c>
       <c r="F88" t="n">
-        <v>0.114931430192312</v>
+        <v>0.160801147259564</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03330458960582534</v>
+        <v>0.03744044371183995</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>27</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1253405640.853692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2214069329.058379</v>
+        <v>2304139144.598085</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1356766161281172</v>
+        <v>0.1308332981204004</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0378125028841492</v>
+        <v>0.04104576992385796</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>23</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1107034760.153883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1979364919.123578</v>
+        <v>1383189904.345945</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1008343907513768</v>
+        <v>0.1113159348228908</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05282105723393503</v>
+        <v>0.04722409790552119</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>989682525.9133918</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2014394834.745798</v>
+        <v>1836051483.639831</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1945890567065879</v>
+        <v>0.1583991088278217</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05511085851100907</v>
+        <v>0.04079306280680618</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1007197387.638624</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1828654749.384949</v>
+        <v>2958679629.841808</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09081851966979211</v>
+        <v>0.07198450993509817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04213656735453386</v>
+        <v>0.04720618278658761</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>914327307.8216302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4522129126.800917</v>
+        <v>4468540264.245383</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1309713750941822</v>
+        <v>0.08772657863087698</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04167816834989843</v>
+        <v>0.03901737760095212</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2261064530.165723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2143546943.920393</v>
+        <v>2017787932.884632</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1451852086251045</v>
+        <v>0.1441323479267549</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02840826959965717</v>
+        <v>0.03797258789674703</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1071773488.909112</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2222412061.732955</v>
+        <v>3269319676.185361</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1255677207199856</v>
+        <v>0.08578231305745704</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04588855255615646</v>
+        <v>0.04194067430846973</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>17</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1111206087.044166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1700738450.267553</v>
+        <v>2083252785.016968</v>
       </c>
       <c r="F96" t="n">
-        <v>0.122441358133661</v>
+        <v>0.1314863554132752</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0389921525954388</v>
+        <v>0.04150403389315335</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>850369243.9600117</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5053603867.545416</v>
+        <v>3272692050.590383</v>
       </c>
       <c r="F97" t="n">
-        <v>0.114400201362505</v>
+        <v>0.1344694348483172</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02789319709893122</v>
+        <v>0.02677014751900126</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>22</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2526802074.793259</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2397852638.757139</v>
+        <v>3596448160.329719</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09139714651323083</v>
+        <v>0.09056518953217098</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02020784735349414</v>
+        <v>0.02523930466642712</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>19</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1198926263.145165</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3096126671.855031</v>
+        <v>2385772239.136757</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1422390767957852</v>
+        <v>0.09631775028987519</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0249068927258216</v>
+        <v>0.03050072204110213</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>22</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1548063328.751327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4147296163.142112</v>
+        <v>4508906660.14657</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1452353280192152</v>
+        <v>0.1258109658419988</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02118665149913087</v>
+        <v>0.02163185986867852</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>21</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2073648163.901585</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3371093865.65371</v>
+        <v>3136939959.372141</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1398574259333939</v>
+        <v>0.1560742962574954</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05175181552260923</v>
+        <v>0.05654779512542178</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>29</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1685547070.855078</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_69.xlsx
+++ b/output/fit_clients/fit_round_69.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2200889825.459845</v>
+        <v>2127769108.040062</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08560872311481638</v>
+        <v>0.0765546839101942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03743961889567889</v>
+        <v>0.03528005611171745</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2469311747.374462</v>
+        <v>1982407917.645351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1734039921578905</v>
+        <v>0.111703819075375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03948157051656648</v>
+        <v>0.03381652323729366</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3346293106.58808</v>
+        <v>4167395433.823516</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1423140031802115</v>
+        <v>0.1137956709695182</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03793302883628751</v>
+        <v>0.03065552334480809</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3668325217.145107</v>
+        <v>3953499831.717877</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07550243073530501</v>
+        <v>0.08771909239280819</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04978725075072988</v>
+        <v>0.03290574819134163</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2291520374.641752</v>
+        <v>2658920720.588583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1077959846899438</v>
+        <v>0.1114345539128705</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05164277577520682</v>
+        <v>0.05362781959489779</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2766978874.830138</v>
+        <v>3127732998.899301</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09860251999779017</v>
+        <v>0.0826902022213085</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03057867037802572</v>
+        <v>0.04666802675951613</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3814504790.515559</v>
+        <v>2533439165.996946</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1744558851365943</v>
+        <v>0.2138033316018762</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0252718724607538</v>
+        <v>0.03020800454158811</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1928856897.479282</v>
+        <v>1500099639.960017</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1205696654106888</v>
+        <v>0.1416349001124459</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02847028910097972</v>
+        <v>0.03630604966842556</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5255922617.803554</v>
+        <v>4397115690.373964</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1801191320512418</v>
+        <v>0.1722839844095439</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05106622724635798</v>
+        <v>0.0472051692830865</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2883184992.780968</v>
+        <v>3522303128.232337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1777599794113241</v>
+        <v>0.1427609371102991</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04325296394944597</v>
+        <v>0.048564421923957</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2511318113.894057</v>
+        <v>2093255203.636388</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1451726591723191</v>
+        <v>0.1489097815825423</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04815572708547035</v>
+        <v>0.03562729059989033</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4546854029.727784</v>
+        <v>4256628495.755539</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08329634630175418</v>
+        <v>0.07382264246986578</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02897198081296946</v>
+        <v>0.030381570992115</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2753746359.881932</v>
+        <v>2745568979.671375</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1531252486381476</v>
+        <v>0.1539217872213733</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03996716734680382</v>
+        <v>0.03161804996857823</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1708664258.79883</v>
+        <v>1244649996.50646</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09685464039836633</v>
+        <v>0.09341285952060277</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03339925726113144</v>
+        <v>0.0312941102795856</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2378480080.018105</v>
+        <v>2360086645.841251</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111552074203893</v>
+        <v>0.1053738177769295</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04515856448184301</v>
+        <v>0.04734852828680376</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3793481639.128416</v>
+        <v>4444113046.03882</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1305083351053165</v>
+        <v>0.1206109000322538</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04463475187071918</v>
+        <v>0.03397406480538701</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2838201459.896214</v>
+        <v>2433941352.041279</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1795941183547826</v>
+        <v>0.1253916168949617</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03065180993694436</v>
+        <v>0.02418867499518394</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1237195605.713729</v>
+        <v>999729331.0606842</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1336894846339769</v>
+        <v>0.1237327783817428</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02578973074125973</v>
+        <v>0.02621110102800222</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2571337694.106648</v>
+        <v>2352994937.00559</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1015160906009828</v>
+        <v>0.1530448851145868</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02697929664689227</v>
+        <v>0.02601070939159579</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1978836092.339703</v>
+        <v>2718063717.656742</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0912991284403024</v>
+        <v>0.0847744060253304</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03760835044366025</v>
+        <v>0.02825527153457993</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3404247550.862999</v>
+        <v>2685731255.618198</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1243416896101695</v>
+        <v>0.09832468670715011</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05500071433576859</v>
+        <v>0.04888355294181115</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1009416711.947966</v>
+        <v>1275546726.769809</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1422302979786336</v>
+        <v>0.1179288037022833</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05437754106598838</v>
+        <v>0.05202787541640886</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2894554631.5961</v>
+        <v>3549607495.743455</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1227004794549045</v>
+        <v>0.1044221459074601</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03387534048553469</v>
+        <v>0.02460784661078302</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1224763662.221562</v>
+        <v>1248970047.071116</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07723805193879951</v>
+        <v>0.08947939982651165</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02604997154161489</v>
+        <v>0.01975849145614971</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1304715405.470564</v>
+        <v>1447192018.506399</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1098169873077088</v>
+        <v>0.08533420100619273</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02961147989363135</v>
+        <v>0.03499831340019686</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3010504136.604636</v>
+        <v>3464855297.740427</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1268696052629388</v>
+        <v>0.1310699423743126</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02160638249031921</v>
+        <v>0.01892858180303243</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2785681343.389456</v>
+        <v>3404963404.770446</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1253871546069031</v>
+        <v>0.1392943984238693</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04465631965668023</v>
+        <v>0.03779352554578431</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5036072114.473401</v>
+        <v>5036122957.680404</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1273411565960935</v>
+        <v>0.1131451599364338</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04527331925227858</v>
+        <v>0.03343058829561592</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2388269133.404636</v>
+        <v>2166682865.526463</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1300545840846734</v>
+        <v>0.1344400055087216</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02940913809573047</v>
+        <v>0.0402166948310896</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1015242188.630888</v>
+        <v>1124618919.95039</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1039117103593236</v>
+        <v>0.0979911600250621</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03567315574811012</v>
+        <v>0.03819158292717913</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1798676643.49646</v>
+        <v>1453796162.05973</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09742356483158394</v>
+        <v>0.1002827773552337</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02964568213800748</v>
+        <v>0.03654057472463973</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2310853961.748832</v>
+        <v>2792610914.953087</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1731281702174921</v>
+        <v>0.1891943033331345</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05191658869883483</v>
+        <v>0.04317513897219417</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1259938672.18894</v>
+        <v>1271711343.273597</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09725529868768544</v>
+        <v>0.1181343502632375</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02561022361851113</v>
+        <v>0.02464738289748048</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>940052416.5636673</v>
+        <v>1138004701.16873</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0928459795034296</v>
+        <v>0.1020145964318497</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04336040935210409</v>
+        <v>0.04047359320671173</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2709191525.862069</v>
+        <v>2887437897.03972</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1291997931791604</v>
+        <v>0.1143859446264</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02055780820422662</v>
+        <v>0.01864289764777662</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1807152051.943491</v>
+        <v>2416281508.926743</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1102818030565079</v>
+        <v>0.101558646577539</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03014595765813144</v>
+        <v>0.03114641638827401</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1886140259.835331</v>
+        <v>2008050792.117523</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1080704498659624</v>
+        <v>0.1004726994756864</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02567622919710915</v>
+        <v>0.03491051393843123</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1688296889.945534</v>
+        <v>2160961359.583282</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1910428745576225</v>
+        <v>0.1726636979430814</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02165473977727415</v>
+        <v>0.02783158538778058</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1199636990.251223</v>
+        <v>1319714197.578428</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1457207935201628</v>
+        <v>0.1599592020394566</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06022187431745789</v>
+        <v>0.0562891082153102</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1962460356.829921</v>
+        <v>2699767053.895699</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1558900518722971</v>
+        <v>0.1634653329936461</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0406081820995123</v>
+        <v>0.03339471368136667</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3471574516.308571</v>
+        <v>3258290643.860378</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1076369658898403</v>
+        <v>0.1268951234589678</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03713388005425503</v>
+        <v>0.04268588655333069</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2118903132.228381</v>
+        <v>2841387634.343619</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1998772935900295</v>
+        <v>0.1685750839994016</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01661388253454693</v>
+        <v>0.01667297681355377</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2280647135.323376</v>
+        <v>2294964283.034678</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09765947838705148</v>
+        <v>0.08969706016011963</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03014502840985495</v>
+        <v>0.03074247654494649</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2015748213.83551</v>
+        <v>1856064999.98644</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1729844412342164</v>
+        <v>0.1539769942182657</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04499078142660094</v>
+        <v>0.03398794851025138</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5262479467.23313</v>
+        <v>4614741639.935892</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1504495518705889</v>
+        <v>0.1491026164166548</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04587324575820866</v>
+        <v>0.06097789611813753</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3417773064.059103</v>
+        <v>4695762934.023426</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1378712718015002</v>
+        <v>0.1984793729946346</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03828873366524618</v>
+        <v>0.04362105798892132</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3513164484.951703</v>
+        <v>2982907209.491111</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09538628604227047</v>
+        <v>0.08941271572500781</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02992325447311237</v>
+        <v>0.02448719388013417</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1628243724.565171</v>
+        <v>1762447511.405315</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1281760325632503</v>
+        <v>0.155404403174669</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04059111879416109</v>
+        <v>0.02950540806868377</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2831371404.243999</v>
+        <v>2929989607.679447</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1701862417961872</v>
+        <v>0.1114886726240095</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04412802096847926</v>
+        <v>0.03614653439731258</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1320779477.821871</v>
+        <v>1499460799.447795</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1253157823568207</v>
+        <v>0.1382818421629925</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03443690976805915</v>
+        <v>0.04231883443727209</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3351180640.547948</v>
+        <v>4057879710.284087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1168269257976284</v>
+        <v>0.09860335927771073</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05274036030965734</v>
+        <v>0.04548954879678926</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2372121539.751303</v>
+        <v>2594661567.42139</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1920248718585133</v>
+        <v>0.1880833850406302</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03001650327563852</v>
+        <v>0.03369949882601844</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4470535009.064424</v>
+        <v>3112355386.021983</v>
       </c>
       <c r="F54" t="n">
-        <v>0.144008446684585</v>
+        <v>0.1606088205871192</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03368897898380402</v>
+        <v>0.0329178801299754</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3649683350.663197</v>
+        <v>4432896697.062818</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1975466423337011</v>
+        <v>0.1677369394064502</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02750263890367948</v>
+        <v>0.03235809582751054</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1364848111.991827</v>
+        <v>1718496738.977207</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1508732041920229</v>
+        <v>0.1289755568749674</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0455511733436548</v>
+        <v>0.04467779241058859</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3840610716.941584</v>
+        <v>4373584977.533845</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1531275065221198</v>
+        <v>0.1751076154153934</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01662638042139316</v>
+        <v>0.02676667800379624</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1216585907.315114</v>
+        <v>1879843680.201865</v>
       </c>
       <c r="F58" t="n">
-        <v>0.174926355975013</v>
+        <v>0.1666390148152117</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03277807912995542</v>
+        <v>0.03920654201847713</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4502072028.141587</v>
+        <v>5146452626.066972</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1292398592306413</v>
+        <v>0.07961979980200837</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04814361169912686</v>
+        <v>0.04700275275438385</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2515320477.070506</v>
+        <v>2622817733.688231</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2028691913272862</v>
+        <v>0.1847117734683614</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0205967009017392</v>
+        <v>0.02324492083118857</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2533235535.798335</v>
+        <v>2706756172.247556</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1158815018011065</v>
+        <v>0.1087607306517273</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03058558673918342</v>
+        <v>0.02462536286308217</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2107837159.520927</v>
+        <v>1860714159.64548</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1710733084902452</v>
+        <v>0.1900645349337742</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04324071432067393</v>
+        <v>0.04054039111810993</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4283975252.015638</v>
+        <v>3909027172.986015</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0664662294932741</v>
+        <v>0.08074270286920748</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0364672498431019</v>
+        <v>0.04217865454158126</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5352553914.530618</v>
+        <v>4843216283.055101</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1836827942383522</v>
+        <v>0.1632144976687125</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02416228579353655</v>
+        <v>0.02277833399319288</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4530400997.34911</v>
+        <v>3994214850.427787</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1229131530150708</v>
+        <v>0.1250785803406443</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02065336527799755</v>
+        <v>0.02170409807715762</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5095406630.846728</v>
+        <v>5720203760.697412</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1120366170486751</v>
+        <v>0.1182949378591399</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04795935172536413</v>
+        <v>0.04848380201858932</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3394581451.729033</v>
+        <v>2248255401.654809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1002182106299172</v>
+        <v>0.06952288060430302</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04536933431453195</v>
+        <v>0.05103276459238017</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5815939244.962986</v>
+        <v>4265246193.111714</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1416027548897887</v>
+        <v>0.122304277346644</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04558107785670568</v>
+        <v>0.03280968461062195</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1806401194.334983</v>
+        <v>1628989386.747889</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1795697170397236</v>
+        <v>0.1636809321381289</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05848834217819113</v>
+        <v>0.04690301809649329</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3709331936.037271</v>
+        <v>2648245978.103197</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1008021842449454</v>
+        <v>0.07433167647619472</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03136713587874052</v>
+        <v>0.03049610873573712</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5588347632.862143</v>
+        <v>4252349719.740122</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1808598512914498</v>
+        <v>0.1648584921419999</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03336001648393948</v>
+        <v>0.03010468616997167</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2047561277.04992</v>
+        <v>2071169628.025515</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08401146828064913</v>
+        <v>0.08388706648257756</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03990910340168845</v>
+        <v>0.04286670131477541</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2507346089.518277</v>
+        <v>2673260879.257539</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1020248496526199</v>
+        <v>0.099066249975655</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05213920336656089</v>
+        <v>0.0351641761106319</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3517274560.837543</v>
+        <v>3774350195.133928</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1722268818153342</v>
+        <v>0.1437773490180041</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02826952776643485</v>
+        <v>0.02791136630964095</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2281006587.816467</v>
+        <v>2503798837.136046</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1509218602271618</v>
+        <v>0.1609763455147437</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02775648924515943</v>
+        <v>0.03306478580385932</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3381804125.256038</v>
+        <v>3772052247.466918</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1246878222982023</v>
+        <v>0.07522164761550877</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0318385952662201</v>
+        <v>0.02423351311017353</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1916418730.009017</v>
+        <v>1930962291.646441</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1772130285356219</v>
+        <v>0.1546554477929044</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02071105676372766</v>
+        <v>0.02321123039881637</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3194628719.103203</v>
+        <v>4377794736.543319</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1196204640429829</v>
+        <v>0.1335817704574566</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05030853809456101</v>
+        <v>0.03507114724122273</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1665408322.128467</v>
+        <v>1717945734.081515</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1752976722041358</v>
+        <v>0.1329922360246584</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02630560061950599</v>
+        <v>0.03133054189016275</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5531994900.776025</v>
+        <v>4636394432.044151</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0839411354674781</v>
+        <v>0.104688281578847</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02547427969564041</v>
+        <v>0.0364492235701623</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5166975769.956489</v>
+        <v>4155134083.655392</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08709470142060705</v>
+        <v>0.1285872372273429</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02769568367252973</v>
+        <v>0.02929587455383871</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4660492358.464988</v>
+        <v>3518279195.143355</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1911955965962795</v>
+        <v>0.1982835631475374</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02784318942846407</v>
+        <v>0.02642945631664024</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1901840345.098338</v>
+        <v>1764425067.172228</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1084396336128849</v>
+        <v>0.1191466906755239</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04496897139594593</v>
+        <v>0.03876836033976142</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2211591215.271527</v>
+        <v>1969342005.559747</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09209156549276472</v>
+        <v>0.09678736693634329</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04891124500451147</v>
+        <v>0.03886606680950073</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3348775785.875093</v>
+        <v>2465991174.030005</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1472907245226238</v>
+        <v>0.1749968801013208</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03801584194883227</v>
+        <v>0.04198991161704641</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2393567061.081014</v>
+        <v>2673305944.804882</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1706635040355758</v>
+        <v>0.1327440834989203</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02227749021720063</v>
+        <v>0.02051879329512974</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>999555855.9798343</v>
+        <v>1070847684.494269</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1411755943058002</v>
+        <v>0.1756480745225555</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03435658489294067</v>
+        <v>0.02888766399187303</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2420453378.657668</v>
+        <v>3183693764.244705</v>
       </c>
       <c r="F88" t="n">
-        <v>0.160801147259564</v>
+        <v>0.1459883272513476</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03744044371183995</v>
+        <v>0.03557242750837906</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2304139144.598085</v>
+        <v>2195598365.287894</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1308332981204004</v>
+        <v>0.1293911024754031</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04104576992385796</v>
+        <v>0.03929224498729403</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1383189904.345945</v>
+        <v>1378302445.48675</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1113159348228908</v>
+        <v>0.1104995057944946</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04722409790552119</v>
+        <v>0.05352145565141574</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1836051483.639831</v>
+        <v>2091776380.558129</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1583991088278217</v>
+        <v>0.1532902400656692</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04079306280680618</v>
+        <v>0.0412516660286579</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2958679629.841808</v>
+        <v>2144693075.262059</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07198450993509817</v>
+        <v>0.0732550891409068</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04720618278658761</v>
+        <v>0.03221092338114979</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4468540264.245383</v>
+        <v>3880710400.715476</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08772657863087698</v>
+        <v>0.09903967528108347</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03901737760095212</v>
+        <v>0.04659273709212521</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2017787932.884632</v>
+        <v>2007362933.377884</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1441323479267549</v>
+        <v>0.139212769082014</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03797258789674703</v>
+        <v>0.03717875222625245</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3269319676.185361</v>
+        <v>2065426026.786157</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08578231305745704</v>
+        <v>0.1059597169715408</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04194067430846973</v>
+        <v>0.05133930829684685</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2083252785.016968</v>
+        <v>1769870399.383347</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1314863554132752</v>
+        <v>0.1177662332172462</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04150403389315335</v>
+        <v>0.03334956290475941</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3272692050.590383</v>
+        <v>4571517980.43987</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1344694348483172</v>
+        <v>0.1312625433646931</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02677014751900126</v>
+        <v>0.02632936230947654</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3596448160.329719</v>
+        <v>2979745295.054777</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09056518953217098</v>
+        <v>0.1124406664133397</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02523930466642712</v>
+        <v>0.02111244326801582</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2385772239.136757</v>
+        <v>2418541827.163525</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09631775028987519</v>
+        <v>0.1128473689751403</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03050072204110213</v>
+        <v>0.03222339202523466</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4508906660.14657</v>
+        <v>3558167025.189972</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1258109658419988</v>
+        <v>0.1643370909793324</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02163185986867852</v>
+        <v>0.02280583332954388</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3136939959.372141</v>
+        <v>2575389352.625313</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1560742962574954</v>
+        <v>0.177230931406973</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05654779512542178</v>
+        <v>0.0560773755810729</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_69.xlsx
+++ b/output/fit_clients/fit_round_69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2127769108.040062</v>
+        <v>1879802121.943804</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0765546839101942</v>
+        <v>0.07288506701570367</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03528005611171745</v>
+        <v>0.03535649594798655</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1982407917.645351</v>
+        <v>1896704789.669804</v>
       </c>
       <c r="F3" t="n">
-        <v>0.111703819075375</v>
+        <v>0.1480162000072463</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03381652323729366</v>
+        <v>0.03688408854555381</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4167395433.823516</v>
+        <v>4270695640.661978</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1137956709695182</v>
+        <v>0.1469290422095165</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03065552334480809</v>
+        <v>0.02414999443988955</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>69</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3953499831.717877</v>
+        <v>3192997159.658594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08771909239280819</v>
+        <v>0.0924329637627135</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03290574819134163</v>
+        <v>0.03647282848673433</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>66</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2658920720.588583</v>
+        <v>2152879806.815156</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1114345539128705</v>
+        <v>0.1146787017939229</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05362781959489779</v>
+        <v>0.05175231083452105</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3127732998.899301</v>
+        <v>2087872378.694705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0826902022213085</v>
+        <v>0.09715624208942131</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04666802675951613</v>
+        <v>0.03731877056328532</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2533439165.996946</v>
+        <v>2475691197.959267</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2138033316018762</v>
+        <v>0.1610162358534649</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03020800454158811</v>
+        <v>0.0297193839330689</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1500099639.960017</v>
+        <v>1941476556.761544</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1416349001124459</v>
+        <v>0.1525130017599035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03630604966842556</v>
+        <v>0.02940488915608744</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4397115690.373964</v>
+        <v>5524687761.638682</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1722839844095439</v>
+        <v>0.1664521418896545</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0472051692830865</v>
+        <v>0.04549858144244415</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>64</v>
+      </c>
+      <c r="J10" t="n">
+        <v>69</v>
+      </c>
+      <c r="K10" t="n">
+        <v>208.2135758946189</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3522303128.232337</v>
+        <v>3727324052.251812</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1427609371102991</v>
+        <v>0.143845655060217</v>
       </c>
       <c r="G11" t="n">
-        <v>0.048564421923957</v>
+        <v>0.03040361598381418</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>69</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2093255203.636388</v>
+        <v>2514742639.219506</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1489097815825423</v>
+        <v>0.152187598660199</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03562729059989033</v>
+        <v>0.04430876006185933</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4256628495.755539</v>
+        <v>3509349613.578498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07382264246986578</v>
+        <v>0.08261847632006129</v>
       </c>
       <c r="G13" t="n">
-        <v>0.030381570992115</v>
+        <v>0.01961757959306482</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>35</v>
+      </c>
+      <c r="J13" t="n">
+        <v>69</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2745568979.671375</v>
+        <v>3776795768.863978</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1539217872213733</v>
+        <v>0.1589671249088764</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03161804996857823</v>
+        <v>0.03114452494408605</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>69</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1244649996.50646</v>
+        <v>1413425832.299509</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09341285952060277</v>
+        <v>0.07925448466021026</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0312941102795856</v>
+        <v>0.04322352398213923</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2360086645.841251</v>
+        <v>2355883540.113575</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1053738177769295</v>
+        <v>0.09234888403168318</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04734852828680376</v>
+        <v>0.0393698621925752</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1022,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4444113046.03882</v>
+        <v>3830420317.144679</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1206109000322538</v>
+        <v>0.1330509887985057</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03397406480538701</v>
+        <v>0.03451735344528863</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>33</v>
+      </c>
+      <c r="J17" t="n">
+        <v>69</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1063,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2433941352.041279</v>
+        <v>2559293536.934961</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1253916168949617</v>
+        <v>0.17168647072615</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02418867499518394</v>
+        <v>0.03341830356202304</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
+      <c r="J18" t="n">
+        <v>67</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1092,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>999729331.0606842</v>
+        <v>1149899489.804547</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1237327783817428</v>
+        <v>0.1338547189555241</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02621110102800222</v>
+        <v>0.02587344777751107</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1133,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2352994937.00559</v>
+        <v>2678692157.800992</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1530448851145868</v>
+        <v>0.1019532049189102</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02601070939159579</v>
+        <v>0.02704654778384683</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1162,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2718063717.656742</v>
+        <v>2445272418.706324</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0847744060253304</v>
+        <v>0.06167583078377736</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02825527153457993</v>
+        <v>0.03779959276607785</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1197,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2685731255.618198</v>
+        <v>3381481120.60375</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09832468670715011</v>
+        <v>0.1352607811858664</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04888355294181115</v>
+        <v>0.05495647783636229</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>67</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1238,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1275546726.769809</v>
+        <v>1435688961.569126</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1179288037022833</v>
+        <v>0.1845250363462549</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05202787541640886</v>
+        <v>0.0340187984449328</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1267,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3549607495.743455</v>
+        <v>3271776472.845385</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1044221459074601</v>
+        <v>0.1420129555115977</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02460784661078302</v>
+        <v>0.02327173294858719</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>21</v>
+      </c>
+      <c r="J24" t="n">
+        <v>67</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1302,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1248970047.071116</v>
+        <v>920683057.1645753</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08947939982651165</v>
+        <v>0.110813561613632</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01975849145614971</v>
+        <v>0.02734570809807775</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1343,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1447192018.506399</v>
+        <v>1156403222.4324</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08533420100619273</v>
+        <v>0.08060403511320562</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03499831340019686</v>
+        <v>0.02510384782701191</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1372,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3464855297.740427</v>
+        <v>3235440997.079027</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1310699423743126</v>
+        <v>0.1065882706057775</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01892858180303243</v>
+        <v>0.01954723204488736</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27</v>
+      </c>
+      <c r="J27" t="n">
+        <v>66</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1407,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3404963404.770446</v>
+        <v>2345646096.062641</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1392943984238693</v>
+        <v>0.1109140199599985</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03779352554578431</v>
+        <v>0.03182273164197651</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>19</v>
+      </c>
+      <c r="J28" t="n">
+        <v>68</v>
+      </c>
+      <c r="K28" t="n">
+        <v>51.61731868218525</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1450,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5036122957.680404</v>
+        <v>5334293808.680048</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1131451599364338</v>
+        <v>0.1426996028921137</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03343058829561592</v>
+        <v>0.04217797158614416</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>63</v>
+      </c>
+      <c r="J29" t="n">
+        <v>69</v>
+      </c>
+      <c r="K29" t="n">
+        <v>214.3022096235209</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1487,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2166682865.526463</v>
+        <v>1490035304.483052</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1344400055087216</v>
+        <v>0.09852766238721393</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0402166948310896</v>
+        <v>0.02430036099431771</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1124618919.95039</v>
+        <v>1187649794.474857</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0979911600250621</v>
+        <v>0.09284527862756639</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03819158292717913</v>
+        <v>0.04195893066052043</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1551,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1453796162.05973</v>
+        <v>1234978856.263163</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1002827773552337</v>
+        <v>0.09637173507812134</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03654057472463973</v>
+        <v>0.02996466730212402</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2792610914.953087</v>
+        <v>2977801167.7496</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1891943033331345</v>
+        <v>0.1325085468828924</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04317513897219417</v>
+        <v>0.05366270412076946</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1271711343.273597</v>
+        <v>1041387275.123835</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1181343502632375</v>
+        <v>0.07447195014954906</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02464738289748048</v>
+        <v>0.01961071029496702</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1138004701.16873</v>
+        <v>1186344843.99555</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1020145964318497</v>
+        <v>0.1091460527490248</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04047359320671173</v>
+        <v>0.03108370683869886</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2887437897.03972</v>
+        <v>2451324964.372952</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1143859446264</v>
+        <v>0.1322815064915257</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01864289764777662</v>
+        <v>0.02829265501902177</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1732,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2416281508.926743</v>
+        <v>2750647924.899248</v>
       </c>
       <c r="F37" t="n">
-        <v>0.101558646577539</v>
+        <v>0.10625983093936</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03114641638827401</v>
+        <v>0.02792301885741808</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2008050792.117523</v>
+        <v>1428353350.863314</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1004726994756864</v>
+        <v>0.1165824456552166</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03491051393843123</v>
+        <v>0.03936761703255104</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2160961359.583282</v>
+        <v>1844962600.960247</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1726636979430814</v>
+        <v>0.1934213850860528</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02783158538778058</v>
+        <v>0.03061287341882045</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1319714197.578428</v>
+        <v>1135217021.534698</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1599592020394566</v>
+        <v>0.1425569342264013</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0562891082153102</v>
+        <v>0.0567790879747185</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2699767053.895699</v>
+        <v>2636516063.244003</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1634653329936461</v>
+        <v>0.1583499672314693</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03339471368136667</v>
+        <v>0.02878249631513811</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1907,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3258290643.860378</v>
+        <v>2809323970.168468</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1268951234589678</v>
+        <v>0.09120710927679199</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04268588655333069</v>
+        <v>0.04015544756046722</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>26</v>
+      </c>
+      <c r="J42" t="n">
+        <v>68</v>
+      </c>
+      <c r="K42" t="n">
+        <v>71.97895291105085</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2841387634.343619</v>
+        <v>3011150994.979987</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1685750839994016</v>
+        <v>0.2010783968051574</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01667297681355377</v>
+        <v>0.0188418271177479</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2294964283.034678</v>
+        <v>1494505523.058715</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08969706016011963</v>
+        <v>0.0962827105938672</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03074247654494649</v>
+        <v>0.03687827426258408</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1856064999.98644</v>
+        <v>2376178048.352275</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1539769942182657</v>
+        <v>0.1489604541655417</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03398794851025138</v>
+        <v>0.04425707861798548</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4614741639.935892</v>
+        <v>3517427467.298771</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1491026164166548</v>
+        <v>0.1773096324541936</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06097789611813753</v>
+        <v>0.04165838433258977</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>41</v>
+      </c>
+      <c r="J46" t="n">
+        <v>68</v>
+      </c>
+      <c r="K46" t="n">
+        <v>112.963254822659</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4695762934.023426</v>
+        <v>4281029085.814894</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1984793729946346</v>
+        <v>0.127211710613813</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04362105798892132</v>
+        <v>0.05701305067867798</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>30</v>
+      </c>
+      <c r="J47" t="n">
+        <v>69</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2982907209.491111</v>
+        <v>3834886709.651711</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08941271572500781</v>
+        <v>0.09533679713255075</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02448719388013417</v>
+        <v>0.03062846425498839</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>68</v>
+      </c>
+      <c r="K48" t="n">
+        <v>136.8689195532093</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1762447511.405315</v>
+        <v>1760657814.273246</v>
       </c>
       <c r="F49" t="n">
-        <v>0.155404403174669</v>
+        <v>0.1966509641914143</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02950540806868377</v>
+        <v>0.03402639750594798</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2929989607.679447</v>
+        <v>3550959316.483581</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1114886726240095</v>
+        <v>0.1317330470672037</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03614653439731258</v>
+        <v>0.03351692159973337</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>69</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1499460799.447795</v>
+        <v>1053336589.130072</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1382818421629925</v>
+        <v>0.1591299570499536</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04231883443727209</v>
+        <v>0.04111498909050548</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4057879710.284087</v>
+        <v>4754759228.283264</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09860335927771073</v>
+        <v>0.08847477667855523</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04548954879678926</v>
+        <v>0.04169923683007473</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>55</v>
+      </c>
+      <c r="J52" t="n">
+        <v>69</v>
+      </c>
+      <c r="K52" t="n">
+        <v>193.7992844693728</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2594661567.42139</v>
+        <v>3246297593.790609</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1880833850406302</v>
+        <v>0.1980803903077074</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03369949882601844</v>
+        <v>0.02506780439804828</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3112355386.021983</v>
+        <v>4771051220.322967</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1606088205871192</v>
+        <v>0.1269981815535651</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0329178801299754</v>
+        <v>0.03827172153823595</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>30</v>
+      </c>
+      <c r="J54" t="n">
+        <v>69</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4432896697.062818</v>
+        <v>4848181029.076787</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1677369394064502</v>
+        <v>0.1900948935271357</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03235809582751054</v>
+        <v>0.0312306440493317</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>32</v>
+      </c>
+      <c r="J55" t="n">
+        <v>68</v>
+      </c>
+      <c r="K55" t="n">
+        <v>164.4149047168588</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1718496738.977207</v>
+        <v>1258614299.39438</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1289755568749674</v>
+        <v>0.1449214567687743</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04467779241058859</v>
+        <v>0.05340400755264758</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4373584977.533845</v>
+        <v>3021458495.099215</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1751076154153934</v>
+        <v>0.1278846288354965</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02676667800379624</v>
+        <v>0.02433410426286295</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+      <c r="J57" t="n">
+        <v>65</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1879843680.201865</v>
+        <v>1210134748.792845</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1666390148152117</v>
+        <v>0.1947941921654062</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03920654201847713</v>
+        <v>0.03513618164612455</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2512,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5146452626.066972</v>
+        <v>4542399920.913058</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07961979980200837</v>
+        <v>0.08424190899715439</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04700275275438385</v>
+        <v>0.04645640850520361</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>33</v>
+      </c>
+      <c r="J59" t="n">
+        <v>69</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2622817733.688231</v>
+        <v>3395614281.910346</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1847117734683614</v>
+        <v>0.1833613463427699</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02324492083118857</v>
+        <v>0.02226583626677163</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2706756172.247556</v>
+        <v>2581794681.402709</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1087607306517273</v>
+        <v>0.1728665861667211</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02462536286308217</v>
+        <v>0.02375836451361433</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1860714159.64548</v>
+        <v>1639409887.273634</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1900645349337742</v>
+        <v>0.1856161295254108</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04054039111810993</v>
+        <v>0.03873413683603549</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2646,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3909027172.986015</v>
+        <v>5410504704.962005</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08074270286920748</v>
+        <v>0.07581143832656914</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04217865454158126</v>
+        <v>0.04769992357096726</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>34</v>
+      </c>
+      <c r="J63" t="n">
+        <v>68</v>
+      </c>
+      <c r="K63" t="n">
+        <v>171.6991691929935</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4843216283.055101</v>
+        <v>4229920444.995138</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1632144976687125</v>
+        <v>0.1197559893675208</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02277833399319288</v>
+        <v>0.03563689285162058</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>34</v>
+      </c>
+      <c r="J64" t="n">
+        <v>68</v>
+      </c>
+      <c r="K64" t="n">
+        <v>157.4061756573012</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3994214850.427787</v>
+        <v>4692577328.877177</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1250785803406443</v>
+        <v>0.132928749624391</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02170409807715762</v>
+        <v>0.01945111296123157</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>54</v>
+      </c>
+      <c r="J65" t="n">
+        <v>69</v>
+      </c>
+      <c r="K65" t="n">
+        <v>187.0975188694993</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5720203760.697412</v>
+        <v>4531765765.67167</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1182949378591399</v>
+        <v>0.1458099039463359</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04848380201858932</v>
+        <v>0.04558176570518317</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>34</v>
+      </c>
+      <c r="J66" t="n">
+        <v>68</v>
+      </c>
+      <c r="K66" t="n">
+        <v>176.0681489538129</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2248255401.654809</v>
+        <v>2483266829.679004</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06952288060430302</v>
+        <v>0.08498155378830817</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05103276459238017</v>
+        <v>0.04007251854393626</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2835,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4265246193.111714</v>
+        <v>5764314156.185889</v>
       </c>
       <c r="F68" t="n">
-        <v>0.122304277346644</v>
+        <v>0.110209200933959</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03280968461062195</v>
+        <v>0.04247983873617755</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>34</v>
+      </c>
+      <c r="J68" t="n">
+        <v>69</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1628989386.747889</v>
+        <v>2074133881.546244</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1636809321381289</v>
+        <v>0.1418752674417422</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04690301809649329</v>
+        <v>0.04210031715296242</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2905,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2648245978.103197</v>
+        <v>3494585152.62329</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07433167647619472</v>
+        <v>0.08526466160896173</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03049610873573712</v>
+        <v>0.04044665208108534</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2940,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4252349719.740122</v>
+        <v>3653013874.092463</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1648584921419999</v>
+        <v>0.1293096330282198</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03010468616997167</v>
+        <v>0.02981462946508926</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>56</v>
+      </c>
+      <c r="J71" t="n">
+        <v>69</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2071169628.025515</v>
+        <v>1534592882.461601</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08388706648257756</v>
+        <v>0.1078923093257711</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04286670131477541</v>
+        <v>0.0454183395417353</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3010,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2673260879.257539</v>
+        <v>2488580820.922366</v>
       </c>
       <c r="F73" t="n">
-        <v>0.099066249975655</v>
+        <v>0.1031710428685532</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0351641761106319</v>
+        <v>0.05251000180495146</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>68</v>
+      </c>
+      <c r="K73" t="n">
+        <v>60.6041156294908</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3774350195.133928</v>
+        <v>3733547211.262119</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1437773490180041</v>
+        <v>0.1669670753100034</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02791136630964095</v>
+        <v>0.03358633016842485</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" t="n">
+        <v>69</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2503798837.136046</v>
+        <v>1653792862.81532</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1609763455147437</v>
+        <v>0.1624211194054686</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03306478580385932</v>
+        <v>0.03461681763871006</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3111,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3772052247.466918</v>
+        <v>4174625734.790212</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07522164761550877</v>
+        <v>0.07548026442557121</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02423351311017353</v>
+        <v>0.02371747920830378</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>31</v>
+      </c>
+      <c r="J76" t="n">
+        <v>69</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1930962291.646441</v>
+        <v>1581295957.301259</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1546554477929044</v>
+        <v>0.1466074518412817</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02321123039881637</v>
+        <v>0.03115602876870779</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4377794736.543319</v>
+        <v>4667013969.37209</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1335817704574566</v>
+        <v>0.1221745791235426</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03507114724122273</v>
+        <v>0.04776800680807677</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>30</v>
+      </c>
+      <c r="J78" t="n">
+        <v>69</v>
+      </c>
+      <c r="K78" t="n">
+        <v>191.2953625352246</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1717945734.081515</v>
+        <v>1443297884.887223</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1329922360246584</v>
+        <v>0.1739646743295477</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03133054189016275</v>
+        <v>0.02782949674035377</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3253,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4636394432.044151</v>
+        <v>3895981429.862192</v>
       </c>
       <c r="F80" t="n">
-        <v>0.104688281578847</v>
+        <v>0.1013963787730425</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0364492235701623</v>
+        <v>0.03217756902067649</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>33</v>
+      </c>
+      <c r="J80" t="n">
+        <v>69</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4155134083.655392</v>
+        <v>4917807201.142661</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1285872372273429</v>
+        <v>0.1297326860222008</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02929587455383871</v>
+        <v>0.02793530699635334</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>31</v>
+      </c>
+      <c r="J81" t="n">
+        <v>68</v>
+      </c>
+      <c r="K81" t="n">
+        <v>149.4484734138352</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3518279195.143355</v>
+        <v>4386804898.04967</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1982835631475374</v>
+        <v>0.1691899365376281</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02642945631664024</v>
+        <v>0.02645071916792348</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>42</v>
+      </c>
+      <c r="J82" t="n">
+        <v>68</v>
+      </c>
+      <c r="K82" t="n">
+        <v>185.8380076138618</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1764425067.172228</v>
+        <v>2406707583.67034</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1191466906755239</v>
+        <v>0.125999649701624</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03876836033976142</v>
+        <v>0.04420351155833759</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1969342005.559747</v>
+        <v>1931852356.025815</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09678736693634329</v>
+        <v>0.07315071109035926</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03886606680950073</v>
+        <v>0.04561525756654099</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2465991174.030005</v>
+        <v>3514076205.10738</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1749968801013208</v>
+        <v>0.1486464164477262</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04198991161704641</v>
+        <v>0.05614173631171684</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="n">
+        <v>122.2003325139442</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2673305944.804882</v>
+        <v>2609318285.013898</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1327440834989203</v>
+        <v>0.1685439597945362</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02051879329512974</v>
+        <v>0.0269452363079431</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1070847684.494269</v>
+        <v>1021581302.287001</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1756480745225555</v>
+        <v>0.1502471163605369</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02888766399187303</v>
+        <v>0.03365078198300598</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3183693764.244705</v>
+        <v>2992865111.513662</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1459883272513476</v>
+        <v>0.1319197610355006</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03557242750837906</v>
+        <v>0.03392110587299622</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2195598365.287894</v>
+        <v>2152008977.781623</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1293911024754031</v>
+        <v>0.1243064131000746</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03929224498729403</v>
+        <v>0.03013022661133496</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="n">
+        <v>42.87327941764877</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1378302445.48675</v>
+        <v>1447515861.573695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1104995057944946</v>
+        <v>0.1082515546485785</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05352145565141574</v>
+        <v>0.05269328013990491</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2091776380.558129</v>
+        <v>1429203731.257967</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1532902400656692</v>
+        <v>0.1955949926826537</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0412516660286579</v>
+        <v>0.0483853080073897</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2144693075.262059</v>
+        <v>2864535493.458395</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0732550891409068</v>
+        <v>0.08626661218085932</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03221092338114979</v>
+        <v>0.03320982550194231</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3880710400.715476</v>
+        <v>4741814703.310062</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09903967528108347</v>
+        <v>0.08816132214543805</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04659273709212521</v>
+        <v>0.05181083538789726</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>31</v>
+      </c>
+      <c r="J93" t="n">
+        <v>68</v>
+      </c>
+      <c r="K93" t="n">
+        <v>168.495334864389</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2007362933.377884</v>
+        <v>2179652195.167761</v>
       </c>
       <c r="F94" t="n">
-        <v>0.139212769082014</v>
+        <v>0.1405409428852928</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03717875222625245</v>
+        <v>0.04239926676178214</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2065426026.786157</v>
+        <v>2016652244.24427</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1059597169715408</v>
+        <v>0.1378259622937956</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05133930829684685</v>
+        <v>0.03619400708689358</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1769870399.383347</v>
+        <v>2285003687.87562</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1177662332172462</v>
+        <v>0.1311638766027783</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03334956290475941</v>
+        <v>0.0317735599196816</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4571517980.43987</v>
+        <v>4224817091.283864</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1312625433646931</v>
+        <v>0.1760085336771205</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02632936230947654</v>
+        <v>0.02819247624129987</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>33</v>
+      </c>
+      <c r="J97" t="n">
+        <v>69</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2979745295.054777</v>
+        <v>2843633305.85039</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1124406664133397</v>
+        <v>0.08620847793519849</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02111244326801582</v>
+        <v>0.02584282569510874</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2418541827.163525</v>
+        <v>2657258427.099135</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1128473689751403</v>
+        <v>0.09386615272640261</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03222339202523466</v>
+        <v>0.03486797548994199</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3558167025.189972</v>
+        <v>4476607855.267307</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1643370909793324</v>
+        <v>0.1504745852248209</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02280583332954388</v>
+        <v>0.02145849663956463</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>29</v>
+      </c>
+      <c r="J100" t="n">
+        <v>68</v>
+      </c>
+      <c r="K100" t="n">
+        <v>171.8570444076557</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2575389352.625313</v>
+        <v>2677182992.690388</v>
       </c>
       <c r="F101" t="n">
-        <v>0.177230931406973</v>
+        <v>0.1424461389417851</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0560773755810729</v>
+        <v>0.04918057181729749</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
